--- a/code/headline_inflation/2019/varlist_Elastic Net.xlsx
+++ b/code/headline_inflation/2019/varlist_Elastic Net.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Var</t>
   </si>
@@ -28,31 +28,55 @@
     <t>CPI Tradable_lag_2</t>
   </si>
   <si>
+    <t>Reserve Requirement Rate_lag_1</t>
+  </si>
+  <si>
+    <t>Reserve Requirement Rate_lag_2</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_1</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_2</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_1</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_2</t>
+  </si>
+  <si>
     <t>Real Minimum Wage (Index)_lag_1</t>
   </si>
   <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_1</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_2</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_1</t>
-  </si>
-  <si>
-    <t>Reserve Requirement Rate_lag_2</t>
-  </si>
-  <si>
-    <t>Reserve Requirement Rate_lag_1</t>
+    <t>Real Minimum Wage (Index)_lag_2</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_1</t>
   </si>
   <si>
     <t>Wholesale Price Index_lag_2</t>
@@ -64,58 +88,58 @@
     <t>CPI Imported_lag_2</t>
   </si>
   <si>
+    <t>CPI Food and Energy_lag_2</t>
+  </si>
+  <si>
+    <t>CPI Non-Tradable_lag_1</t>
+  </si>
+  <si>
+    <t>CPI Non-Tradable_lag_2</t>
+  </si>
+  <si>
+    <t>CPI Core_lag_1</t>
+  </si>
+  <si>
+    <t>CPI Core_lag_2</t>
+  </si>
+  <si>
+    <t>CPI Non-Core_lag_1</t>
+  </si>
+  <si>
+    <t>CPI Non-Core_lag_2</t>
+  </si>
+  <si>
+    <t>CPI Food and Energy_lag_1</t>
+  </si>
+  <si>
+    <t>CPI Excluding Food and Energy_lag_1</t>
+  </si>
+  <si>
     <t>CPI Imported_lag_1</t>
   </si>
   <si>
+    <t>CPI Excluding Food and Energy_lag_2</t>
+  </si>
+  <si>
+    <t>CPI Food and Beverages_lag_1</t>
+  </si>
+  <si>
+    <t>CPI Food and Beverages_lag_2</t>
+  </si>
+  <si>
+    <t>CPI Excluding Food and Beverages_lag_1</t>
+  </si>
+  <si>
+    <t>CPI Excluding Food and Beverages_lag_2</t>
+  </si>
+  <si>
+    <t>CPI Core Excluding Food and Beverages_lag_1</t>
+  </si>
+  <si>
     <t>CPI Core Excluding Food and Beverages_lag_2</t>
   </si>
   <si>
-    <t>CPI Core Excluding Food and Beverages_lag_1</t>
-  </si>
-  <si>
-    <t>CPI Excluding Food and Beverages_lag_2</t>
-  </si>
-  <si>
-    <t>CPI Excluding Food and Beverages_lag_1</t>
-  </si>
-  <si>
-    <t>CPI Food and Beverages_lag_2</t>
-  </si>
-  <si>
-    <t>CPI Food and Beverages_lag_1</t>
-  </si>
-  <si>
-    <t>CPI Excluding Food and Energy_lag_2</t>
-  </si>
-  <si>
-    <t>CPI Excluding Food and Energy_lag_1</t>
-  </si>
-  <si>
-    <t>CPI Food and Energy_lag_2</t>
-  </si>
-  <si>
-    <t>CPI Food and Energy_lag_1</t>
-  </si>
-  <si>
-    <t>CPI Non-Core_lag_2</t>
-  </si>
-  <si>
-    <t>CPI Non-Core_lag_1</t>
-  </si>
-  <si>
-    <t>CPI Core_lag_2</t>
-  </si>
-  <si>
-    <t>CPI Core_lag_1</t>
-  </si>
-  <si>
-    <t>CPI Non-Tradable_lag_2</t>
-  </si>
-  <si>
-    <t>CPI Non-Tradable_lag_1</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_2</t>
+    <t>Crude oil (US$ per barrel)_lag_2</t>
   </si>
 </sst>
 </file>
@@ -473,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -506,51 +530,51 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -561,282 +585,370 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.07032270412506808</v>
+        <v>0.06959799061218061</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0.06959799061218061</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0.06959799061218061</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>0.06959799061218061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>0.06959799061218061</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>0.06959799061218061</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>0.06959799061218061</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>0.06959799061218061</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>0.06959799061218061</v>
       </c>
     </row>
   </sheetData>

--- a/code/headline_inflation/2019/varlist_Elastic Net.xlsx
+++ b/code/headline_inflation/2019/varlist_Elastic Net.xlsx
@@ -519,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,7 +629,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,7 +640,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,7 +662,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,7 +673,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +684,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,7 +695,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -706,7 +706,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -717,7 +717,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -728,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -739,7 +739,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -750,7 +750,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -761,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -772,7 +772,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -783,7 +783,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -794,7 +794,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -805,7 +805,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -816,7 +816,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -827,7 +827,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -838,7 +838,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -849,7 +849,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -860,7 +860,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -871,7 +871,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -882,7 +882,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -893,7 +893,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -904,7 +904,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -915,7 +915,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -926,7 +926,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -937,7 +937,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -948,7 +948,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.06959799061218061</v>
+        <v>0.06959799061218087</v>
       </c>
     </row>
   </sheetData>
